--- a/s_d/feedit2019-10-29.xlsx
+++ b/s_d/feedit2019-10-29.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowWidth="28800" windowHeight="12540" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="19.10.29" sheetId="1" r:id="rId1"/>
+    <sheet name="19.11.01" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="21">
   <si>
     <t>订单编号</t>
   </si>
@@ -67,17 +67,58 @@
   <si>
     <t>查看</t>
   </si>
+  <si>
+    <r>
+      <t>天天熟食 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.75"/>
+        <color rgb="FFC62626"/>
+        <rFont val="Helvetica"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（自营）</t>
+    </r>
+  </si>
+  <si>
+    <t>陈宇</t>
+  </si>
+  <si>
+    <t>徐锦源</t>
+  </si>
+  <si>
+    <t>姚志娣</t>
+  </si>
+  <si>
+    <t>罗汪洋</t>
+  </si>
+  <si>
+    <t>王爽</t>
+  </si>
+  <si>
+    <t>麻丽莹</t>
+  </si>
+  <si>
+    <t>崔晋艳</t>
+  </si>
+  <si>
+    <t>郑婷婷</t>
+  </si>
+  <si>
+    <t>徐芳</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="8" formatCode="&quot;￥&quot;#,##0.00;[Red]&quot;￥&quot;\-#,##0.00"/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="8" formatCode="&quot;￥&quot;#,##0.00;[Red]&quot;￥&quot;\-#,##0.00"/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -107,6 +148,14 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -115,7 +164,98 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -130,30 +270,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -167,97 +292,13 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="9.75"/>
       <color rgb="FFC62626"/>
       <name val="Helvetica"/>
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -278,6 +319,138 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -290,157 +463,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -485,7 +532,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -493,19 +540,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -525,11 +561,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -549,21 +600,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -578,6 +614,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -586,151 +633,178 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="22" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="8" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="22" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="8" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -1097,7 +1171,7 @@
   <sheetPr/>
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
@@ -1110,61 +1184,61 @@
   </cols>
   <sheetData>
     <row r="1" ht="15" customHeight="1" spans="1:7">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+      <c r="A1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="10" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" ht="14.25" spans="1:7">
-      <c r="A2" s="2">
+      <c r="A2" s="11">
         <v>1.02019102916434e+23</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="12">
         <v>43767.6970601852</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="13">
         <v>191</v>
       </c>
-      <c r="F2" s="4">
-        <v>0</v>
-      </c>
-      <c r="G2" s="2" t="s">
+      <c r="F2" s="13">
+        <v>0</v>
+      </c>
+      <c r="G2" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="2"/>
+      <c r="A3" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="11"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -1187,14 +1261,1071 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:G51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E$1:E$1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <cols>
+    <col min="1" max="1" width="11.125"/>
+    <col min="3" max="3" width="13.375"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="30" customHeight="1" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" ht="15" customHeight="1" spans="1:7">
+      <c r="A2" s="2">
+        <v>1.02019110117073e+23</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="3">
+        <v>43770.7136226852</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="4">
+        <v>24</v>
+      </c>
+      <c r="F2" s="4">
+        <v>0</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" ht="15" customHeight="1" spans="1:7">
+      <c r="A3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="2"/>
+    </row>
+    <row r="4" ht="15" customHeight="1" spans="1:7">
+      <c r="A4" s="6">
+        <v>1.02019110116593e+23</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="7">
+        <v>43770.7080902778</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="8">
+        <v>419.4</v>
+      </c>
+      <c r="F4" s="8">
+        <v>0</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" ht="15" customHeight="1" spans="1:7">
+      <c r="A5" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="6"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="6"/>
+    </row>
+    <row r="6" ht="15" customHeight="1" spans="1:7">
+      <c r="A6" s="2">
+        <v>1.02019110116585e+23</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="3">
+        <v>43770.7076157407</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="4">
+        <v>188.9</v>
+      </c>
+      <c r="F6" s="4">
+        <v>0</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" ht="15" customHeight="1" spans="1:7">
+      <c r="A7" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="2"/>
+    </row>
+    <row r="8" ht="15" customHeight="1" spans="1:7">
+      <c r="A8" s="6">
+        <v>1.02019110116582e+23</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="7">
+        <v>43770.7072800926</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="8">
+        <v>672.9</v>
+      </c>
+      <c r="F8" s="8">
+        <v>0</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" ht="15" customHeight="1" spans="1:7">
+      <c r="A9" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="6"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="6"/>
+    </row>
+    <row r="10" ht="15" customHeight="1" spans="1:7">
+      <c r="A10" s="2">
+        <v>1.0201911011658e+23</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="3">
+        <v>43770.7069675926</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="4">
+        <v>90.6</v>
+      </c>
+      <c r="F10" s="4">
+        <v>0</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" ht="15" customHeight="1" spans="1:7">
+      <c r="A11" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="2"/>
+    </row>
+    <row r="12" ht="15" customHeight="1" spans="1:7">
+      <c r="A12" s="6">
+        <v>1.02019110116573e+23</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="7">
+        <v>43770.7066319444</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" s="8">
+        <v>589.8</v>
+      </c>
+      <c r="F12" s="8">
+        <v>0</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" ht="15" customHeight="1" spans="1:7">
+      <c r="A13" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="6"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="6"/>
+    </row>
+    <row r="14" ht="15" customHeight="1" spans="1:7">
+      <c r="A14" s="2">
+        <v>1.0201911011657e+23</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="3">
+        <v>43770.7063194444</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" s="4">
+        <v>547</v>
+      </c>
+      <c r="F14" s="4">
+        <v>0</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" ht="15" customHeight="1" spans="1:7">
+      <c r="A15" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" s="2"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="2"/>
+    </row>
+    <row r="16" ht="15" customHeight="1" spans="1:7">
+      <c r="A16" s="6">
+        <v>1.02019110116562e+23</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="7">
+        <v>43770.7058796296</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E16" s="8">
+        <v>543</v>
+      </c>
+      <c r="F16" s="8">
+        <v>0</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" ht="15" customHeight="1" spans="1:7">
+      <c r="A17" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" s="6"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="6"/>
+    </row>
+    <row r="18" ht="15" customHeight="1" spans="1:7">
+      <c r="A18" s="2">
+        <v>1.02019110116555e+23</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" s="3">
+        <v>43770.705474537</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18" s="4">
+        <v>785.9</v>
+      </c>
+      <c r="F18" s="4">
+        <v>0</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" ht="15" customHeight="1" spans="1:7">
+      <c r="A19" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19" s="2"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="2"/>
+    </row>
+    <row r="20" ht="15" customHeight="1" spans="1:7">
+      <c r="A20" s="6">
+        <v>1.02019110116552e+23</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" s="7">
+        <v>43770.705162037</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E20" s="8">
+        <v>317</v>
+      </c>
+      <c r="F20" s="8">
+        <v>0</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" ht="15" customHeight="1" spans="1:7">
+      <c r="A21" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21" s="6"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="6"/>
+    </row>
+    <row r="22" ht="14.25" spans="1:7">
+      <c r="A22" s="2">
+        <v>1.02019110116543e+23</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" s="3">
+        <v>43770.7046180556</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E22" s="4">
+        <v>603</v>
+      </c>
+      <c r="F22" s="4">
+        <v>0</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" ht="15" customHeight="1" spans="1:7">
+      <c r="A23" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B23" s="2"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="2"/>
+    </row>
+    <row r="24" ht="14.25" spans="1:7">
+      <c r="A24" s="6">
+        <v>1.02019110116541e+23</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24" s="7">
+        <v>43770.7043171296</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E24" s="8">
+        <v>643</v>
+      </c>
+      <c r="F24" s="8">
+        <v>0</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" ht="15" customHeight="1" spans="1:7">
+      <c r="A25" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25" s="6"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="6"/>
+    </row>
+    <row r="26" ht="14.25" spans="1:7">
+      <c r="A26" s="2">
+        <v>1.02019110116522e+23</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C26" s="3">
+        <v>43770.7030208333</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E26" s="4">
+        <v>152</v>
+      </c>
+      <c r="F26" s="4">
+        <v>0</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" ht="15" customHeight="1" spans="1:7">
+      <c r="A27" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B27" s="2"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="2"/>
+    </row>
+    <row r="28" ht="14.25" spans="1:7">
+      <c r="A28" s="6">
+        <v>1.02019110116512e+23</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C28" s="7">
+        <v>43770.7024074074</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E28" s="8">
+        <v>149.9</v>
+      </c>
+      <c r="F28" s="8">
+        <v>0</v>
+      </c>
+      <c r="G28" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" ht="15" customHeight="1" spans="1:7">
+      <c r="A29" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B29" s="6"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="6"/>
+    </row>
+    <row r="30" ht="14.25" spans="1:7">
+      <c r="A30" s="2">
+        <v>1.02019110116505e+23</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C30" s="3">
+        <v>43770.7020023148</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E30" s="4">
+        <v>753</v>
+      </c>
+      <c r="F30" s="4">
+        <v>0</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B31" s="2"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="2"/>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="2">
+        <v>1.02019110116502e+23</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C32" s="3">
+        <v>43770.7016319444</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E32" s="4">
+        <v>311</v>
+      </c>
+      <c r="F32" s="4">
+        <v>0</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B33" s="2"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="2"/>
+    </row>
+    <row r="34" ht="14.25" spans="1:7">
+      <c r="A34" s="6">
+        <v>1.02019110116495e+23</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C34" s="7">
+        <v>43770.7013310185</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E34" s="8">
+        <v>648</v>
+      </c>
+      <c r="F34" s="8">
+        <v>0</v>
+      </c>
+      <c r="G34" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" ht="14.25" spans="1:7">
+      <c r="A35" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B35" s="6"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="6"/>
+    </row>
+    <row r="36" ht="14.25" spans="1:7">
+      <c r="A36" s="2">
+        <v>1.02019110116492e+23</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C36" s="3">
+        <v>43770.7009837963</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E36" s="4">
+        <v>267.9</v>
+      </c>
+      <c r="F36" s="4">
+        <v>0</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" ht="14.25" spans="1:7">
+      <c r="A37" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B37" s="2"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="2"/>
+    </row>
+    <row r="38" ht="14.25" spans="1:7">
+      <c r="A38" s="6">
+        <v>1.02019110116451e+23</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C38" s="7">
+        <v>43770.6981134259</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E38" s="8">
+        <v>998</v>
+      </c>
+      <c r="F38" s="8">
+        <v>0</v>
+      </c>
+      <c r="G38" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39" ht="14.25" spans="1:7">
+      <c r="A39" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B39" s="6"/>
+      <c r="C39" s="7"/>
+      <c r="D39" s="6"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="6"/>
+    </row>
+    <row r="40" ht="14.25" spans="1:7">
+      <c r="A40" s="2">
+        <v>1.02019110116445e+23</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C40" s="3">
+        <v>43770.6978009259</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E40" s="4">
+        <v>334</v>
+      </c>
+      <c r="F40" s="4">
+        <v>0</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41" ht="14.25" spans="1:7">
+      <c r="A41" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B41" s="2"/>
+      <c r="C41" s="3"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="4"/>
+      <c r="F41" s="4"/>
+      <c r="G41" s="2"/>
+    </row>
+    <row r="42" ht="14.25" spans="1:7">
+      <c r="A42" s="6">
+        <v>1.02019110116392e+23</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C42" s="7">
+        <v>43770.6940856481</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E42" s="8">
+        <v>37</v>
+      </c>
+      <c r="F42" s="8">
+        <v>0</v>
+      </c>
+      <c r="G42" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43" ht="14.25" spans="1:7">
+      <c r="A43" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B43" s="6"/>
+      <c r="C43" s="7"/>
+      <c r="D43" s="6"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="6"/>
+    </row>
+    <row r="44" ht="14.25" spans="1:7">
+      <c r="A44" s="2">
+        <v>1.02019110116385e+23</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C44" s="3">
+        <v>43770.6936342593</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E44" s="4">
+        <v>195.9</v>
+      </c>
+      <c r="F44" s="4">
+        <v>0</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45" ht="14.25" spans="1:7">
+      <c r="A45" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B45" s="2"/>
+      <c r="C45" s="3"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="4"/>
+      <c r="F45" s="4"/>
+      <c r="G45" s="2"/>
+    </row>
+    <row r="46" ht="14.25" spans="1:7">
+      <c r="A46" s="6">
+        <v>1.02019110116285e+23</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C46" s="7">
+        <v>43770.6867708333</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E46" s="8">
+        <v>186</v>
+      </c>
+      <c r="F46" s="8">
+        <v>0</v>
+      </c>
+      <c r="G46" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47" ht="14.25" spans="1:7">
+      <c r="A47" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B47" s="6"/>
+      <c r="C47" s="7"/>
+      <c r="D47" s="6"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="8"/>
+      <c r="G47" s="6"/>
+    </row>
+    <row r="48" ht="14.25" spans="1:7">
+      <c r="A48" s="2">
+        <v>1.02019110116264e+23</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C48" s="3">
+        <v>43770.6852430556</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E48" s="4">
+        <v>758</v>
+      </c>
+      <c r="F48" s="4">
+        <v>0</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49" ht="14.25" spans="1:7">
+      <c r="A49" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B49" s="2"/>
+      <c r="C49" s="3"/>
+      <c r="D49" s="2"/>
+      <c r="E49" s="4"/>
+      <c r="F49" s="4"/>
+      <c r="G49" s="2"/>
+    </row>
+    <row r="50" ht="14.25" spans="1:7">
+      <c r="A50" s="6">
+        <v>1.02019110116184e+23</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C50" s="7">
+        <v>43770.6797222222</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E50" s="8">
+        <v>677.5</v>
+      </c>
+      <c r="F50" s="8">
+        <v>0</v>
+      </c>
+      <c r="G50" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B51" s="6"/>
+      <c r="C51" s="7"/>
+      <c r="D51" s="6"/>
+      <c r="E51" s="8"/>
+      <c r="F51" s="8"/>
+      <c r="G51" s="6"/>
+    </row>
+  </sheetData>
+  <mergeCells count="150">
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="C44:C45"/>
+    <mergeCell ref="C46:C47"/>
+    <mergeCell ref="C48:C49"/>
+    <mergeCell ref="C50:C51"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="D38:D39"/>
+    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="D44:D45"/>
+    <mergeCell ref="D46:D47"/>
+    <mergeCell ref="D48:D49"/>
+    <mergeCell ref="D50:D51"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="E44:E45"/>
+    <mergeCell ref="E46:E47"/>
+    <mergeCell ref="E48:E49"/>
+    <mergeCell ref="E50:E51"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="F34:F35"/>
+    <mergeCell ref="F36:F37"/>
+    <mergeCell ref="F38:F39"/>
+    <mergeCell ref="F40:F41"/>
+    <mergeCell ref="F42:F43"/>
+    <mergeCell ref="F44:F45"/>
+    <mergeCell ref="F46:F47"/>
+    <mergeCell ref="F48:F49"/>
+    <mergeCell ref="F50:F51"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="G34:G35"/>
+    <mergeCell ref="G36:G37"/>
+    <mergeCell ref="G38:G39"/>
+    <mergeCell ref="G40:G41"/>
+    <mergeCell ref="G42:G43"/>
+    <mergeCell ref="G44:G45"/>
+    <mergeCell ref="G46:G47"/>
+    <mergeCell ref="G48:G49"/>
+    <mergeCell ref="G50:G51"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A3" r:id="rId1" display="查看" tooltip="http://hs.wangxuekeji.com/index.php?m=orders&amp;c=admin&amp;a=info&amp;order_id=3609"/>
+    <hyperlink ref="A5" r:id="rId2" display="查看" tooltip="http://hs.wangxuekeji.com/index.php?m=orders&amp;c=admin&amp;a=info&amp;order_id=3608"/>
+    <hyperlink ref="A7" r:id="rId3" display="查看" tooltip="http://hs.wangxuekeji.com/index.php?m=orders&amp;c=admin&amp;a=info&amp;order_id=3607"/>
+    <hyperlink ref="A9" r:id="rId4" display="查看" tooltip="http://hs.wangxuekeji.com/index.php?m=orders&amp;c=admin&amp;a=info&amp;order_id=3606"/>
+    <hyperlink ref="A11" r:id="rId5" display="查看" tooltip="http://hs.wangxuekeji.com/index.php?m=orders&amp;c=admin&amp;a=info&amp;order_id=3605"/>
+    <hyperlink ref="A13" r:id="rId6" display="查看" tooltip="http://hs.wangxuekeji.com/index.php?m=orders&amp;c=admin&amp;a=info&amp;order_id=3604"/>
+    <hyperlink ref="A15" r:id="rId7" display="查看" tooltip="http://hs.wangxuekeji.com/index.php?m=orders&amp;c=admin&amp;a=info&amp;order_id=3603"/>
+    <hyperlink ref="A17" r:id="rId8" display="查看" tooltip="http://hs.wangxuekeji.com/index.php?m=orders&amp;c=admin&amp;a=info&amp;order_id=3602"/>
+    <hyperlink ref="A19" r:id="rId9" display="查看" tooltip="http://hs.wangxuekeji.com/index.php?m=orders&amp;c=admin&amp;a=info&amp;order_id=3601"/>
+    <hyperlink ref="A21" r:id="rId10" display="查看" tooltip="http://hs.wangxuekeji.com/index.php?m=orders&amp;c=admin&amp;a=info&amp;order_id=3600"/>
+    <hyperlink ref="A23" r:id="rId11" display="查看" tooltip="http://hs.wangxuekeji.com/index.php?m=orders&amp;c=admin&amp;a=info&amp;order_id=3599"/>
+    <hyperlink ref="A25" r:id="rId12" display="查看" tooltip="http://hs.wangxuekeji.com/index.php?m=orders&amp;c=admin&amp;a=info&amp;order_id=3598"/>
+    <hyperlink ref="A27" r:id="rId13" display="查看" tooltip="http://hs.wangxuekeji.com/index.php?m=orders&amp;c=admin&amp;a=info&amp;order_id=3596"/>
+    <hyperlink ref="A29" r:id="rId14" display="查看" tooltip="http://hs.wangxuekeji.com/index.php?m=orders&amp;c=admin&amp;a=info&amp;order_id=3595"/>
+    <hyperlink ref="A31" r:id="rId15" display="查看" tooltip="http://hs.wangxuekeji.com/index.php?m=orders&amp;c=admin&amp;a=info&amp;order_id=3594"/>
+    <hyperlink ref="A33" r:id="rId16" display="查看" tooltip="http://hs.wangxuekeji.com/index.php?m=orders&amp;c=admin&amp;a=info&amp;order_id=3593"/>
+    <hyperlink ref="A35" r:id="rId17" display="查看" tooltip="http://hs.wangxuekeji.com/index.php?m=orders&amp;c=admin&amp;a=info&amp;order_id=3592"/>
+    <hyperlink ref="A37" r:id="rId18" display="查看" tooltip="http://hs.wangxuekeji.com/index.php?m=orders&amp;c=admin&amp;a=info&amp;order_id=3591"/>
+    <hyperlink ref="A39" r:id="rId19" display="查看" tooltip="http://hs.wangxuekeji.com/index.php?m=orders&amp;c=admin&amp;a=info&amp;order_id=3589"/>
+    <hyperlink ref="A41" r:id="rId20" display="查看" tooltip="http://hs.wangxuekeji.com/index.php?m=orders&amp;c=admin&amp;a=info&amp;order_id=3588"/>
+    <hyperlink ref="A43" r:id="rId21" display="查看" tooltip="http://hs.wangxuekeji.com/index.php?m=orders&amp;c=admin&amp;a=info&amp;order_id=3586"/>
+    <hyperlink ref="A45" r:id="rId22" display="查看" tooltip="http://hs.wangxuekeji.com/index.php?m=orders&amp;c=admin&amp;a=info&amp;order_id=3585"/>
+    <hyperlink ref="A47" r:id="rId23" display="查看" tooltip="http://hs.wangxuekeji.com/index.php?m=orders&amp;c=admin&amp;a=info&amp;order_id=3584"/>
+    <hyperlink ref="A49" r:id="rId24" display="查看" tooltip="http://hs.wangxuekeji.com/index.php?m=orders&amp;c=admin&amp;a=info&amp;order_id=3583"/>
+    <hyperlink ref="A51" r:id="rId25" display="查看" tooltip="http://hs.wangxuekeji.com/index.php?m=orders&amp;c=admin&amp;a=info&amp;order_id=3582"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
